--- a/Q3andQ4/Training31.xlsx
+++ b/Q3andQ4/Training31.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8715"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="6675" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
